--- a/doc/20231019_codebook_cobatest_opentic.xlsx
+++ b/doc/20231019_codebook_cobatest_opentic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/jaceiton_iconcologia_net/Documents/Escriptori/GAD-CEEISCAT/COBATEST_SERVER/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="675" documentId="11_AD4D2F04E46CFB4ACB3E20C3AD90D084683EDF17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9431E07C-8B77-449C-8B67-D9D7B95A0BD3}"/>
+  <xr:revisionPtr revIDLastSave="791" documentId="11_AD4D2F04E46CFB4ACB3E20C3AD90D084683EDF17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67EB18D6-8ED9-4954-BEF4-40E61D18C073}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="971">
   <si>
     <t>variable</t>
   </si>
@@ -2879,6 +2879,78 @@
   </si>
   <si>
     <t>Motivos para hacerse la prueba del VIH --- Otro --- Texto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No </t>
+  </si>
+  <si>
+    <t>No Sabe</t>
+  </si>
+  <si>
+    <t>Menos de 3 meses</t>
+  </si>
+  <si>
+    <t>Menos de 12 meses</t>
+  </si>
+  <si>
+    <t>Más de 12 meses</t>
+  </si>
+  <si>
+    <t>hivtest_yndk01 == 1</t>
+  </si>
+  <si>
+    <t>Pruebas del VIH anteriores</t>
+  </si>
+  <si>
+    <t>Pruebas del VIH anteriores  --- Última prueba de VIH realizada</t>
+  </si>
+  <si>
+    <t>Pruebas del VIH anteriores  --- Fecha de la última prueba</t>
+  </si>
+  <si>
+    <t>Pruebas del VIH anteriores  --- Fecha de la última prueba --- dia</t>
+  </si>
+  <si>
+    <t>Sirve para "hivtest_data4"</t>
+  </si>
+  <si>
+    <t>Pruebas del VIH anteriores  --- Fecha de la última prueba --- mes</t>
+  </si>
+  <si>
+    <t>Pruebas del VIH anteriores  --- Fecha de la última prueba --- año</t>
+  </si>
+  <si>
+    <t>Pruebas del VIH anteriores  --- Prueba del VIH en los últimos 12 meses en este centro</t>
+  </si>
+  <si>
+    <t>Pruebas del VIH anteriores  --- Resultado de la última prueba</t>
+  </si>
+  <si>
+    <t>Sexo en los últimos 12 meses con</t>
+  </si>
+  <si>
+    <t>Hombres (cis/trans)</t>
+  </si>
+  <si>
+    <t>Mujeres (cis/trans)</t>
+  </si>
+  <si>
+    <t>Mujeres y hombres (cis/trans)</t>
+  </si>
+  <si>
+    <t>No he practicado sexo</t>
+  </si>
+  <si>
+    <t>Uso de preservativo en la última relación sexual con penetración</t>
+  </si>
+  <si>
+    <t>Sexo con penetración sin preservativo en los últimos 12 meses con:   Trabajadores/as sexuales</t>
+  </si>
+  <si>
+    <t>Ha recibido dinero, drogas, bienes o servicios a cambio de sexo en los últimos 12 meses</t>
   </si>
 </sst>
 </file>
@@ -3109,7 +3181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3212,15 +3284,40 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3505,16 +3602,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H489"/>
+  <dimension ref="A1:H508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="C200" sqref="C200:C201"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="B234" sqref="B234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.26953125" customWidth="1"/>
     <col min="5" max="5" width="43.36328125" bestFit="1" customWidth="1"/>
@@ -5564,13 +5661,11 @@
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="4"/>
       <c r="B139" s="33"/>
-      <c r="C139" s="58"/>
       <c r="D139" s="33"/>
-      <c r="E139" s="58"/>
       <c r="F139" s="29">
         <v>2</v>
       </c>
-      <c r="G139" s="59" t="s">
+      <c r="G139" s="1" t="s">
         <v>873</v>
       </c>
       <c r="H139" s="33"/>
@@ -5611,7 +5706,7 @@
       <c r="A142" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B142" s="60" t="s">
+      <c r="B142" s="58" t="s">
         <v>930</v>
       </c>
       <c r="C142" s="15"/>
@@ -5631,14 +5726,12 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="4"/>
-      <c r="B143" s="61"/>
-      <c r="C143" s="58"/>
+      <c r="B143" s="59"/>
       <c r="D143" s="33"/>
-      <c r="E143" s="58"/>
       <c r="F143" s="29">
         <v>1</v>
       </c>
-      <c r="G143" s="59" t="s">
+      <c r="G143" s="1" t="s">
         <v>918</v>
       </c>
       <c r="H143" s="33"/>
@@ -5647,7 +5740,7 @@
       <c r="A144" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B144" s="60" t="s">
+      <c r="B144" s="58" t="s">
         <v>933</v>
       </c>
       <c r="C144" s="15" t="s">
@@ -5669,14 +5762,14 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" s="7"/>
-      <c r="B145" s="62"/>
+      <c r="B145" s="60"/>
       <c r="C145" s="8"/>
       <c r="D145" s="21"/>
       <c r="E145" s="8"/>
       <c r="F145" s="25">
         <v>1</v>
       </c>
-      <c r="G145" s="59" t="s">
+      <c r="G145" s="1" t="s">
         <v>918</v>
       </c>
       <c r="H145" s="21"/>
@@ -5685,7 +5778,7 @@
       <c r="A146" t="s">
         <v>37</v>
       </c>
-      <c r="B146" s="60" t="s">
+      <c r="B146" s="58" t="s">
         <v>933</v>
       </c>
       <c r="C146" t="s">
@@ -5706,12 +5799,12 @@
       <c r="H146" s="33"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B147" s="61"/>
+      <c r="B147" s="59"/>
       <c r="D147" s="33"/>
       <c r="F147" s="29">
         <v>1</v>
       </c>
-      <c r="G147" s="59" t="s">
+      <c r="G147" s="1" t="s">
         <v>918</v>
       </c>
       <c r="H147" s="33"/>
@@ -5720,7 +5813,7 @@
       <c r="A148" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B148" s="60" t="s">
+      <c r="B148" s="58" t="s">
         <v>933</v>
       </c>
       <c r="C148" s="15" t="s">
@@ -5742,14 +5835,14 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="7"/>
-      <c r="B149" s="62"/>
+      <c r="B149" s="60"/>
       <c r="C149" s="8"/>
       <c r="D149" s="21"/>
       <c r="E149" s="8"/>
       <c r="F149" s="25">
         <v>1</v>
       </c>
-      <c r="G149" s="59" t="s">
+      <c r="G149" s="1" t="s">
         <v>918</v>
       </c>
       <c r="H149" s="21"/>
@@ -5758,7 +5851,7 @@
       <c r="A150" t="s">
         <v>39</v>
       </c>
-      <c r="B150" s="60" t="s">
+      <c r="B150" s="58" t="s">
         <v>933</v>
       </c>
       <c r="C150" t="s">
@@ -5779,12 +5872,12 @@
       <c r="H150" s="33"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B151" s="61"/>
+      <c r="B151" s="59"/>
       <c r="D151" s="33"/>
       <c r="F151" s="29">
         <v>1</v>
       </c>
-      <c r="G151" s="59" t="s">
+      <c r="G151" s="1" t="s">
         <v>918</v>
       </c>
       <c r="H151" s="33"/>
@@ -5793,7 +5886,7 @@
       <c r="A152" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B152" s="60" t="s">
+      <c r="B152" s="58" t="s">
         <v>933</v>
       </c>
       <c r="C152" s="15" t="s">
@@ -5815,14 +5908,14 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" s="7"/>
-      <c r="B153" s="62"/>
+      <c r="B153" s="60"/>
       <c r="C153" s="8"/>
       <c r="D153" s="21"/>
       <c r="E153" s="8"/>
       <c r="F153" s="25">
         <v>1</v>
       </c>
-      <c r="G153" s="59" t="s">
+      <c r="G153" s="1" t="s">
         <v>918</v>
       </c>
       <c r="H153" s="21"/>
@@ -5831,7 +5924,7 @@
       <c r="A154" t="s">
         <v>41</v>
       </c>
-      <c r="B154" s="60" t="s">
+      <c r="B154" s="58" t="s">
         <v>933</v>
       </c>
       <c r="C154" t="s">
@@ -5852,12 +5945,12 @@
       <c r="H154" s="33"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B155" s="61"/>
+      <c r="B155" s="59"/>
       <c r="D155" s="33"/>
       <c r="F155" s="29">
         <v>1</v>
       </c>
-      <c r="G155" s="59" t="s">
+      <c r="G155" s="1" t="s">
         <v>918</v>
       </c>
       <c r="H155" s="33"/>
@@ -5866,7 +5959,7 @@
       <c r="A156" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B156" s="60" t="s">
+      <c r="B156" s="58" t="s">
         <v>933</v>
       </c>
       <c r="C156" s="15" t="s">
@@ -5888,14 +5981,14 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" s="7"/>
-      <c r="B157" s="62"/>
+      <c r="B157" s="60"/>
       <c r="C157" s="8"/>
       <c r="D157" s="21"/>
       <c r="E157" s="8"/>
       <c r="F157" s="25">
         <v>1</v>
       </c>
-      <c r="G157" s="59" t="s">
+      <c r="G157" s="1" t="s">
         <v>918</v>
       </c>
       <c r="H157" s="21"/>
@@ -5904,7 +5997,7 @@
       <c r="A158" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B158" s="63" t="s">
+      <c r="B158" s="32" t="s">
         <v>935</v>
       </c>
       <c r="C158" t="s">
@@ -5926,12 +6019,12 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" s="4"/>
-      <c r="B159" s="64"/>
+      <c r="B159" s="33"/>
       <c r="D159" s="33"/>
       <c r="F159" s="29">
         <v>1</v>
       </c>
-      <c r="G159" s="59" t="s">
+      <c r="G159" s="1" t="s">
         <v>918</v>
       </c>
       <c r="H159" s="33"/>
@@ -5996,36 +6089,34 @@
       <c r="A163" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B163" s="61" t="s">
+      <c r="B163" s="59" t="s">
         <v>936</v>
       </c>
-      <c r="C163" s="58" t="s">
+      <c r="C163" t="s">
         <v>940</v>
       </c>
       <c r="D163" s="33" t="s">
         <v>862</v>
       </c>
-      <c r="E163" s="58" t="s">
+      <c r="E163" t="s">
         <v>842</v>
       </c>
       <c r="F163" s="29">
         <v>0</v>
       </c>
-      <c r="G163" s="59" t="s">
+      <c r="G163" s="1" t="s">
         <v>873</v>
       </c>
       <c r="H163" s="33"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" s="4"/>
-      <c r="B164" s="61"/>
-      <c r="C164" s="58"/>
+      <c r="B164" s="59"/>
       <c r="D164" s="33"/>
-      <c r="E164" s="58"/>
       <c r="F164" s="29">
         <v>1</v>
       </c>
-      <c r="G164" s="59" t="s">
+      <c r="G164" s="1" t="s">
         <v>918</v>
       </c>
       <c r="H164" s="33"/>
@@ -6034,10 +6125,10 @@
       <c r="A165" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B165" s="60" t="s">
+      <c r="B165" s="58" t="s">
         <v>936</v>
       </c>
-      <c r="C165" s="58" t="s">
+      <c r="C165" t="s">
         <v>940</v>
       </c>
       <c r="D165" s="32" t="s">
@@ -6056,7 +6147,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" s="7"/>
-      <c r="B166" s="62"/>
+      <c r="B166" s="60"/>
       <c r="C166" s="8"/>
       <c r="D166" s="21"/>
       <c r="E166" s="8"/>
@@ -6072,36 +6163,34 @@
       <c r="A167" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B167" s="61" t="s">
+      <c r="B167" s="59" t="s">
         <v>936</v>
       </c>
-      <c r="C167" s="58" t="s">
+      <c r="C167" t="s">
         <v>940</v>
       </c>
       <c r="D167" s="33" t="s">
         <v>862</v>
       </c>
-      <c r="E167" s="58" t="s">
+      <c r="E167" t="s">
         <v>842</v>
       </c>
       <c r="F167" s="29">
         <v>0</v>
       </c>
-      <c r="G167" s="59" t="s">
+      <c r="G167" s="1" t="s">
         <v>873</v>
       </c>
       <c r="H167" s="33"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" s="4"/>
-      <c r="B168" s="61"/>
-      <c r="C168" s="58"/>
+      <c r="B168" s="59"/>
       <c r="D168" s="33"/>
-      <c r="E168" s="58"/>
       <c r="F168" s="29">
         <v>1</v>
       </c>
-      <c r="G168" s="59" t="s">
+      <c r="G168" s="1" t="s">
         <v>918</v>
       </c>
       <c r="H168" s="33"/>
@@ -6110,10 +6199,10 @@
       <c r="A169" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B169" s="60" t="s">
+      <c r="B169" s="58" t="s">
         <v>936</v>
       </c>
-      <c r="C169" s="58" t="s">
+      <c r="C169" t="s">
         <v>940</v>
       </c>
       <c r="D169" s="32" t="s">
@@ -6132,7 +6221,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" s="7"/>
-      <c r="B170" s="62"/>
+      <c r="B170" s="60"/>
       <c r="C170" s="8"/>
       <c r="D170" s="21"/>
       <c r="E170" s="8"/>
@@ -6148,36 +6237,34 @@
       <c r="A171" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B171" s="61" t="s">
+      <c r="B171" s="59" t="s">
         <v>936</v>
       </c>
-      <c r="C171" s="58" t="s">
+      <c r="C171" t="s">
         <v>940</v>
       </c>
       <c r="D171" s="33" t="s">
         <v>862</v>
       </c>
-      <c r="E171" s="58" t="s">
+      <c r="E171" t="s">
         <v>842</v>
       </c>
       <c r="F171" s="29">
         <v>0</v>
       </c>
-      <c r="G171" s="59" t="s">
+      <c r="G171" s="1" t="s">
         <v>873</v>
       </c>
       <c r="H171" s="33"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" s="4"/>
-      <c r="B172" s="61"/>
-      <c r="C172" s="58"/>
+      <c r="B172" s="59"/>
       <c r="D172" s="33"/>
-      <c r="E172" s="58"/>
       <c r="F172" s="29">
         <v>1</v>
       </c>
-      <c r="G172" s="59" t="s">
+      <c r="G172" s="1" t="s">
         <v>918</v>
       </c>
       <c r="H172" s="33"/>
@@ -6186,10 +6273,10 @@
       <c r="A173" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B173" s="60" t="s">
+      <c r="B173" s="58" t="s">
         <v>936</v>
       </c>
-      <c r="C173" s="58" t="s">
+      <c r="C173" t="s">
         <v>940</v>
       </c>
       <c r="D173" s="32" t="s">
@@ -6208,7 +6295,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" s="7"/>
-      <c r="B174" s="62"/>
+      <c r="B174" s="60"/>
       <c r="C174" s="8"/>
       <c r="D174" s="21"/>
       <c r="E174" s="8"/>
@@ -6227,19 +6314,19 @@
       <c r="B175" s="33" t="s">
         <v>938</v>
       </c>
-      <c r="C175" s="58" t="s">
+      <c r="C175" t="s">
         <v>940</v>
       </c>
       <c r="D175" s="33" t="s">
         <v>862</v>
       </c>
-      <c r="E175" s="58" t="s">
+      <c r="E175" t="s">
         <v>842</v>
       </c>
       <c r="F175" s="29">
         <v>0</v>
       </c>
-      <c r="G175" s="59" t="s">
+      <c r="G175" s="1" t="s">
         <v>873</v>
       </c>
       <c r="H175" s="33"/>
@@ -6282,7 +6369,7 @@
       <c r="A178" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B178" s="63" t="s">
+      <c r="B178" s="32" t="s">
         <v>942</v>
       </c>
       <c r="C178" s="15"/>
@@ -6407,7 +6494,7 @@
       <c r="A185" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B185" s="60"/>
+      <c r="B185" s="58"/>
       <c r="D185" s="33" t="s">
         <v>862</v>
       </c>
@@ -6424,12 +6511,12 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" s="4"/>
-      <c r="B186" s="61"/>
+      <c r="B186" s="59"/>
       <c r="D186" s="33"/>
       <c r="F186" s="29">
         <v>1</v>
       </c>
-      <c r="G186" s="59" t="s">
+      <c r="G186" s="1" t="s">
         <v>918</v>
       </c>
       <c r="H186" s="33"/>
@@ -6438,7 +6525,7 @@
       <c r="A187" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B187" s="60"/>
+      <c r="B187" s="58"/>
       <c r="C187" s="15"/>
       <c r="D187" s="32" t="s">
         <v>862</v>
@@ -6456,7 +6543,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" s="7"/>
-      <c r="B188" s="62"/>
+      <c r="B188" s="60"/>
       <c r="C188" s="8"/>
       <c r="D188" s="21"/>
       <c r="E188" s="8"/>
@@ -6472,7 +6559,7 @@
       <c r="A189" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B189" s="61"/>
+      <c r="B189" s="59"/>
       <c r="D189" s="33" t="s">
         <v>862</v>
       </c>
@@ -6482,19 +6569,19 @@
       <c r="F189" s="29">
         <v>0</v>
       </c>
-      <c r="G189" s="59" t="s">
+      <c r="G189" s="1" t="s">
         <v>873</v>
       </c>
       <c r="H189" s="33"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" s="4"/>
-      <c r="B190" s="61"/>
+      <c r="B190" s="59"/>
       <c r="D190" s="33"/>
       <c r="F190" s="29">
         <v>1</v>
       </c>
-      <c r="G190" s="59" t="s">
+      <c r="G190" s="1" t="s">
         <v>918</v>
       </c>
       <c r="H190" s="33"/>
@@ -6503,7 +6590,7 @@
       <c r="A191" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B191" s="60"/>
+      <c r="B191" s="58"/>
       <c r="C191" s="15"/>
       <c r="D191" s="32" t="s">
         <v>862</v>
@@ -6521,7 +6608,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" s="7"/>
-      <c r="B192" s="62"/>
+      <c r="B192" s="60"/>
       <c r="C192" s="8"/>
       <c r="D192" s="21"/>
       <c r="E192" s="8"/>
@@ -6537,7 +6624,7 @@
       <c r="A193" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B193" s="61"/>
+      <c r="B193" s="59"/>
       <c r="D193" s="33" t="s">
         <v>862</v>
       </c>
@@ -6547,14 +6634,14 @@
       <c r="F193" s="29">
         <v>0</v>
       </c>
-      <c r="G193" s="59" t="s">
+      <c r="G193" s="1" t="s">
         <v>873</v>
       </c>
       <c r="H193" s="33"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" s="4"/>
-      <c r="B194" s="61"/>
+      <c r="B194" s="59"/>
       <c r="D194" s="33"/>
       <c r="F194" s="25">
         <v>1</v>
@@ -6579,314 +6666,555 @@
       <c r="H195" s="11"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A196" s="4" t="s">
+      <c r="A196" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E196" t="s">
+      <c r="B196" s="58" t="s">
+        <v>954</v>
+      </c>
+      <c r="C196" s="32"/>
+      <c r="D196" s="32" t="s">
+        <v>862</v>
+      </c>
+      <c r="E196" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="H196" s="5"/>
+      <c r="F196" s="64">
+        <v>1</v>
+      </c>
+      <c r="G196" s="61" t="s">
+        <v>947</v>
+      </c>
+      <c r="H196" s="32"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A197" s="4" t="s">
+      <c r="A197" s="4"/>
+      <c r="B197" s="33"/>
+      <c r="C197" s="33"/>
+      <c r="D197" s="33"/>
+      <c r="F197" s="65">
+        <v>2</v>
+      </c>
+      <c r="G197" s="62" t="s">
+        <v>948</v>
+      </c>
+      <c r="H197" s="33"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A198" s="7"/>
+      <c r="B198" s="21"/>
+      <c r="C198" s="21"/>
+      <c r="D198" s="21"/>
+      <c r="E198" s="8"/>
+      <c r="F198" s="66">
+        <v>3</v>
+      </c>
+      <c r="G198" s="63" t="s">
+        <v>949</v>
+      </c>
+      <c r="H198" s="21"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A199" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E197" t="s">
+      <c r="B199" s="32" t="s">
+        <v>955</v>
+      </c>
+      <c r="C199" s="15" t="s">
+        <v>953</v>
+      </c>
+      <c r="D199" s="32" t="s">
+        <v>862</v>
+      </c>
+      <c r="E199" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="H197" s="5"/>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A198" s="4" t="s">
+      <c r="F199" s="64">
+        <v>1</v>
+      </c>
+      <c r="G199" s="61" t="s">
+        <v>950</v>
+      </c>
+      <c r="H199" s="32"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A200" s="4"/>
+      <c r="B200" s="33"/>
+      <c r="D200" s="33"/>
+      <c r="F200" s="65">
+        <v>2</v>
+      </c>
+      <c r="G200" s="62" t="s">
+        <v>951</v>
+      </c>
+      <c r="H200" s="33"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A201" s="4"/>
+      <c r="B201" s="33"/>
+      <c r="D201" s="33"/>
+      <c r="F201" s="65">
+        <v>3</v>
+      </c>
+      <c r="G201" s="62" t="s">
+        <v>952</v>
+      </c>
+      <c r="H201" s="33"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A202" s="7"/>
+      <c r="B202" s="21"/>
+      <c r="C202" s="8"/>
+      <c r="D202" s="21"/>
+      <c r="E202" s="8"/>
+      <c r="F202" s="66">
+        <v>4</v>
+      </c>
+      <c r="G202" s="63" t="s">
+        <v>874</v>
+      </c>
+      <c r="H202" s="21"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A203" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E198" t="s">
+      <c r="B203" s="11" t="s">
+        <v>956</v>
+      </c>
+      <c r="C203" s="11" t="s">
+        <v>953</v>
+      </c>
+      <c r="D203" s="11" t="s">
+        <v>859</v>
+      </c>
+      <c r="E203" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="H198" s="5"/>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A199" s="4" t="s">
+      <c r="F203" s="12"/>
+      <c r="G203" s="12"/>
+      <c r="H203" s="11"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A204" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E199" t="s">
+      <c r="B204" s="11" t="s">
+        <v>957</v>
+      </c>
+      <c r="C204" s="11" t="s">
+        <v>953</v>
+      </c>
+      <c r="D204" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="E204" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="H199" s="5"/>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A200" s="4" t="s">
+      <c r="F204" s="12"/>
+      <c r="G204" s="12"/>
+      <c r="H204" s="11" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A205" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E200" t="s">
+      <c r="B205" s="11" t="s">
+        <v>959</v>
+      </c>
+      <c r="C205" s="11" t="s">
+        <v>953</v>
+      </c>
+      <c r="D205" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="E205" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="H200" s="5"/>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A201" s="4" t="s">
+      <c r="F205" s="12"/>
+      <c r="G205" s="12"/>
+      <c r="H205" s="11" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A206" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="E201" t="s">
+      <c r="B206" s="32" t="s">
+        <v>960</v>
+      </c>
+      <c r="C206" s="32" t="s">
+        <v>953</v>
+      </c>
+      <c r="D206" s="32" t="s">
+        <v>863</v>
+      </c>
+      <c r="E206" s="32" t="s">
         <v>843</v>
       </c>
-      <c r="H201" s="5"/>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A202" s="4" t="s">
+      <c r="F206" s="24"/>
+      <c r="G206" s="24"/>
+      <c r="H206" s="32" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A207" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E202" t="s">
+      <c r="B207" s="32" t="s">
+        <v>962</v>
+      </c>
+      <c r="C207" s="15" t="s">
+        <v>953</v>
+      </c>
+      <c r="D207" s="32" t="s">
+        <v>862</v>
+      </c>
+      <c r="E207" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="H202" s="5"/>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A203" s="4" t="s">
+      <c r="F207" s="64">
+        <v>1</v>
+      </c>
+      <c r="G207" s="61" t="s">
+        <v>918</v>
+      </c>
+      <c r="H207" s="32"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A208" s="4"/>
+      <c r="B208" s="33"/>
+      <c r="D208" s="33"/>
+      <c r="F208" s="65">
+        <v>2</v>
+      </c>
+      <c r="G208" s="62" t="s">
+        <v>873</v>
+      </c>
+      <c r="H208" s="33"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A209" s="7"/>
+      <c r="B209" s="21"/>
+      <c r="C209" s="8"/>
+      <c r="D209" s="21"/>
+      <c r="E209" s="8"/>
+      <c r="F209" s="66">
+        <v>3</v>
+      </c>
+      <c r="G209" s="63" t="s">
+        <v>874</v>
+      </c>
+      <c r="H209" s="21"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A210" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E203" t="s">
+      <c r="B210" s="32" t="s">
+        <v>961</v>
+      </c>
+      <c r="C210" s="15" t="s">
+        <v>953</v>
+      </c>
+      <c r="D210" s="32" t="s">
+        <v>862</v>
+      </c>
+      <c r="E210" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="H203" s="5"/>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A204" s="4" t="s">
+      <c r="F210" s="64">
+        <v>1</v>
+      </c>
+      <c r="G210" s="61" t="s">
+        <v>918</v>
+      </c>
+      <c r="H210" s="32"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A211" s="4"/>
+      <c r="B211" s="33"/>
+      <c r="D211" s="33"/>
+      <c r="E211" s="5"/>
+      <c r="F211" s="65">
+        <v>2</v>
+      </c>
+      <c r="G211" s="62" t="s">
+        <v>873</v>
+      </c>
+      <c r="H211" s="33"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A212" s="7"/>
+      <c r="B212" s="21"/>
+      <c r="C212" s="8"/>
+      <c r="D212" s="21"/>
+      <c r="E212" s="10"/>
+      <c r="F212" s="66">
+        <v>3</v>
+      </c>
+      <c r="G212" s="63" t="s">
+        <v>874</v>
+      </c>
+      <c r="H212" s="21"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A213" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E204" t="s">
+      <c r="B213" s="32" t="s">
+        <v>963</v>
+      </c>
+      <c r="C213" s="15"/>
+      <c r="D213" s="32" t="s">
+        <v>862</v>
+      </c>
+      <c r="E213" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="H204" s="5"/>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A205" s="4" t="s">
+      <c r="F213" s="64">
+        <v>1</v>
+      </c>
+      <c r="G213" s="61" t="s">
+        <v>964</v>
+      </c>
+      <c r="H213" s="32"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A214" s="4"/>
+      <c r="B214" s="33"/>
+      <c r="D214" s="33"/>
+      <c r="F214" s="65">
+        <v>2</v>
+      </c>
+      <c r="G214" s="62" t="s">
+        <v>965</v>
+      </c>
+      <c r="H214" s="33"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A215" s="4"/>
+      <c r="B215" s="33"/>
+      <c r="D215" s="33"/>
+      <c r="F215" s="65">
+        <v>3</v>
+      </c>
+      <c r="G215" s="62" t="s">
+        <v>966</v>
+      </c>
+      <c r="H215" s="33"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A216" s="4"/>
+      <c r="B216" s="33"/>
+      <c r="D216" s="33"/>
+      <c r="F216" s="65">
+        <v>4</v>
+      </c>
+      <c r="G216" s="62" t="s">
+        <v>967</v>
+      </c>
+      <c r="H216" s="33"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A217" s="7"/>
+      <c r="B217" s="21"/>
+      <c r="C217" s="8"/>
+      <c r="D217" s="21"/>
+      <c r="E217" s="8"/>
+      <c r="F217" s="66">
+        <v>5</v>
+      </c>
+      <c r="G217" s="63" t="s">
+        <v>874</v>
+      </c>
+      <c r="H217" s="21"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A218" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="E205" t="s">
+      <c r="B218" s="15" t="s">
+        <v>968</v>
+      </c>
+      <c r="C218" s="32"/>
+      <c r="D218" s="32" t="s">
+        <v>862</v>
+      </c>
+      <c r="E218" s="32" t="s">
         <v>447</v>
       </c>
-      <c r="H205" s="5"/>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A206" s="4" t="s">
+      <c r="F218" s="16">
+        <v>1</v>
+      </c>
+      <c r="G218" s="64" t="s">
+        <v>918</v>
+      </c>
+      <c r="H218" s="17"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A219" s="33"/>
+      <c r="B219" s="67"/>
+      <c r="C219" s="33"/>
+      <c r="D219" s="67"/>
+      <c r="E219" s="33"/>
+      <c r="F219" s="68">
+        <v>2</v>
+      </c>
+      <c r="G219" s="65" t="s">
+        <v>873</v>
+      </c>
+      <c r="H219" s="5"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A220" s="21"/>
+      <c r="B220" s="8"/>
+      <c r="C220" s="21"/>
+      <c r="D220" s="8"/>
+      <c r="E220" s="21"/>
+      <c r="F220" s="9">
+        <v>3</v>
+      </c>
+      <c r="G220" s="66" t="s">
+        <v>874</v>
+      </c>
+      <c r="H220" s="10"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A221" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E206" t="s">
+      <c r="B221" s="32" t="s">
+        <v>970</v>
+      </c>
+      <c r="C221" s="15"/>
+      <c r="D221" s="32" t="s">
+        <v>862</v>
+      </c>
+      <c r="E221" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="H206" s="5"/>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A207" s="4" t="s">
+      <c r="F221" s="24">
+        <v>1</v>
+      </c>
+      <c r="G221" s="69" t="s">
+        <v>918</v>
+      </c>
+      <c r="H221" s="17"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A222" s="4"/>
+      <c r="B222" s="33"/>
+      <c r="C222" s="67"/>
+      <c r="D222" s="33"/>
+      <c r="E222" s="67"/>
+      <c r="F222" s="29">
+        <v>2</v>
+      </c>
+      <c r="G222" s="70" t="s">
+        <v>873</v>
+      </c>
+      <c r="H222" s="5"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A223" s="7"/>
+      <c r="B223" s="21"/>
+      <c r="C223" s="8"/>
+      <c r="D223" s="21"/>
+      <c r="E223" s="8"/>
+      <c r="F223" s="25">
+        <v>3</v>
+      </c>
+      <c r="G223" s="71" t="s">
+        <v>874</v>
+      </c>
+      <c r="H223" s="10"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A224" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="E207" t="s">
+      <c r="B224" s="15" t="s">
+        <v>969</v>
+      </c>
+      <c r="C224" s="32"/>
+      <c r="D224" s="32" t="s">
+        <v>862</v>
+      </c>
+      <c r="E224" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="H207" s="5"/>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A208" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E208" t="s">
-        <v>447</v>
-      </c>
-      <c r="H208" s="5"/>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A209" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E209" t="s">
-        <v>447</v>
-      </c>
-      <c r="H209" s="5"/>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A210" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E210" t="s">
-        <v>447</v>
-      </c>
-      <c r="H210" s="5"/>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A211" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E211" t="s">
-        <v>447</v>
-      </c>
-      <c r="H211" s="5"/>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A212" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E212" t="s">
-        <v>447</v>
-      </c>
-      <c r="H212" s="5"/>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A213" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E213" t="s">
-        <v>447</v>
-      </c>
-      <c r="H213" s="5"/>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A214" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E214" t="s">
-        <v>362</v>
-      </c>
-      <c r="H214" s="5"/>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A215" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E215" t="s">
-        <v>445</v>
-      </c>
-      <c r="H215" s="5"/>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A216" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E216" t="s">
-        <v>448</v>
-      </c>
-      <c r="H216" s="5"/>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A217" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E217" t="s">
-        <v>448</v>
-      </c>
-      <c r="H217" s="5"/>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A218" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E218" t="s">
-        <v>843</v>
-      </c>
-      <c r="H218" s="5"/>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A219" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E219" t="s">
-        <v>447</v>
-      </c>
-      <c r="H219" s="5"/>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A220" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E220" t="s">
-        <v>447</v>
-      </c>
-      <c r="H220" s="5"/>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A221" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E221" t="s">
-        <v>447</v>
-      </c>
-      <c r="H221" s="5"/>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A222" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E222" t="s">
-        <v>362</v>
-      </c>
-      <c r="H222" s="5"/>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A223" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E223" t="s">
-        <v>841</v>
-      </c>
-      <c r="H223" s="5"/>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A224" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E224" t="s">
-        <v>362</v>
-      </c>
-      <c r="H224" s="5"/>
+      <c r="F224" s="24">
+        <v>1</v>
+      </c>
+      <c r="G224" s="69" t="s">
+        <v>918</v>
+      </c>
+      <c r="H224" s="17"/>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A225" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E225" t="s">
-        <v>444</v>
+      <c r="A225" s="33"/>
+      <c r="B225" s="67"/>
+      <c r="C225" s="33"/>
+      <c r="D225" s="33"/>
+      <c r="E225" s="5"/>
+      <c r="F225" s="29">
+        <v>2</v>
+      </c>
+      <c r="G225" s="70" t="s">
+        <v>873</v>
       </c>
       <c r="H225" s="5"/>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A226" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E226" t="s">
-        <v>844</v>
-      </c>
-      <c r="H226" s="5"/>
+      <c r="A226" s="21"/>
+      <c r="B226" s="8"/>
+      <c r="C226" s="21"/>
+      <c r="D226" s="21"/>
+      <c r="E226" s="10"/>
+      <c r="F226" s="25">
+        <v>3</v>
+      </c>
+      <c r="G226" s="71" t="s">
+        <v>874</v>
+      </c>
+      <c r="H226" s="10"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227" s="4" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="E227" t="s">
-        <v>844</v>
+        <v>447</v>
       </c>
       <c r="H227" s="5"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A228" s="4" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E228" t="s">
-        <v>845</v>
+        <v>447</v>
       </c>
       <c r="H228" s="5"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A229" s="4" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E229" t="s">
-        <v>841</v>
+        <v>447</v>
       </c>
       <c r="H229" s="5"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230" s="4" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E230" t="s">
         <v>447</v>
@@ -6895,25 +7223,25 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231" s="4" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="E231" t="s">
-        <v>362</v>
+        <v>447</v>
       </c>
       <c r="H231" s="5"/>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232" s="4" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="E232" t="s">
-        <v>362</v>
+        <v>447</v>
       </c>
       <c r="H232" s="5"/>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233" s="4" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E233" t="s">
         <v>362</v>
@@ -6922,106 +7250,106 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234" s="4" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E234" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H234" s="5"/>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235" s="4" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E235" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H235" s="5"/>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236" s="4" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E236" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="H236" s="5"/>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237" s="4" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E237" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H237" s="5"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A238" s="4" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="E238" t="s">
-        <v>844</v>
+        <v>447</v>
       </c>
       <c r="H238" s="5"/>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A239" s="4" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E239" t="s">
-        <v>845</v>
+        <v>447</v>
       </c>
       <c r="H239" s="5"/>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A240" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="E240" t="s">
-        <v>841</v>
+        <v>447</v>
       </c>
       <c r="H240" s="5"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A241" s="4" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="E241" t="s">
-        <v>447</v>
+        <v>362</v>
       </c>
       <c r="H241" s="5"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A242" s="4" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E242" t="s">
-        <v>447</v>
+        <v>841</v>
       </c>
       <c r="H242" s="5"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A243" s="4" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="E243" t="s">
-        <v>444</v>
+        <v>362</v>
       </c>
       <c r="H243" s="5"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A244" s="4" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="E244" t="s">
-        <v>844</v>
+        <v>444</v>
       </c>
       <c r="H244" s="5"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A245" s="4" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="E245" t="s">
         <v>844</v>
@@ -7030,34 +7358,34 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A246" s="4" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="E246" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H246" s="5"/>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A247" s="4" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E247" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="H247" s="5"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A248" s="4" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="E248" t="s">
-        <v>447</v>
+        <v>841</v>
       </c>
       <c r="H248" s="5"/>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A249" s="4" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="E249" t="s">
         <v>447</v>
@@ -7066,70 +7394,70 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A250" s="4" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="E250" t="s">
-        <v>444</v>
+        <v>362</v>
       </c>
       <c r="H250" s="5"/>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A251" s="4" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E251" t="s">
-        <v>844</v>
+        <v>362</v>
       </c>
       <c r="H251" s="5"/>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A252" s="4" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="E252" t="s">
-        <v>844</v>
+        <v>362</v>
       </c>
       <c r="H252" s="5"/>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A253" s="4" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="E253" t="s">
-        <v>845</v>
+        <v>447</v>
       </c>
       <c r="H253" s="5"/>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A254" s="4" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="E254" t="s">
-        <v>841</v>
+        <v>447</v>
       </c>
       <c r="H254" s="5"/>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A255" s="4" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="E255" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H255" s="5"/>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A256" s="4" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="E256" t="s">
-        <v>444</v>
+        <v>844</v>
       </c>
       <c r="H256" s="5"/>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A257" s="4" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="E257" t="s">
         <v>844</v>
@@ -7138,43 +7466,43 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A258" s="4" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="E258" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H258" s="5"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A259" s="4" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="E259" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="H259" s="5"/>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A260" s="4" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="E260" t="s">
-        <v>841</v>
+        <v>447</v>
       </c>
       <c r="H260" s="5"/>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A261" s="4" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="E261" t="s">
-        <v>366</v>
+        <v>447</v>
       </c>
       <c r="H261" s="5"/>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A262" s="4" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="E262" t="s">
         <v>444</v>
@@ -7183,7 +7511,7 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A263" s="4" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="E263" t="s">
         <v>844</v>
@@ -7192,7 +7520,7 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A264" s="4" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E264" t="s">
         <v>844</v>
@@ -7201,7 +7529,7 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A265" s="4" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="E265" t="s">
         <v>845</v>
@@ -7210,7 +7538,7 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A266" s="4" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="E266" t="s">
         <v>841</v>
@@ -7219,34 +7547,34 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A267" s="4" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="E267" t="s">
-        <v>362</v>
+        <v>447</v>
       </c>
       <c r="H267" s="5"/>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A268" s="4" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="E268" t="s">
-        <v>844</v>
+        <v>447</v>
       </c>
       <c r="H268" s="5"/>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A269" s="4" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="E269" t="s">
-        <v>844</v>
+        <v>444</v>
       </c>
       <c r="H269" s="5"/>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A270" s="4" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="E270" t="s">
         <v>844</v>
@@ -7255,25 +7583,25 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A271" s="4" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="E271" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H271" s="5"/>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A272" s="4" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="E272" t="s">
-        <v>362</v>
+        <v>845</v>
       </c>
       <c r="H272" s="5"/>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A273" s="4" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="E273" t="s">
         <v>841</v>
@@ -7282,7 +7610,7 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A274" s="4" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="E274" t="s">
         <v>447</v>
@@ -7291,7 +7619,7 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A275" s="4" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="E275" t="s">
         <v>444</v>
@@ -7300,7 +7628,7 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A276" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="E276" t="s">
         <v>844</v>
@@ -7309,7 +7637,7 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A277" s="4" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="E277" t="s">
         <v>844</v>
@@ -7318,7 +7646,7 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A278" s="4" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E278" t="s">
         <v>845</v>
@@ -7327,7 +7655,7 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A279" s="4" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="E279" t="s">
         <v>841</v>
@@ -7336,16 +7664,16 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A280" s="4" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="E280" t="s">
-        <v>447</v>
+        <v>366</v>
       </c>
       <c r="H280" s="5"/>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A281" s="4" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="E281" t="s">
         <v>444</v>
@@ -7354,7 +7682,7 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A282" s="4" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="E282" t="s">
         <v>844</v>
@@ -7363,7 +7691,7 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A283" s="4" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="E283" t="s">
         <v>844</v>
@@ -7372,7 +7700,7 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A284" s="4" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="E284" t="s">
         <v>845</v>
@@ -7381,7 +7709,7 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A285" s="4" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="E285" t="s">
         <v>841</v>
@@ -7390,196 +7718,196 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A286" s="4" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="E286" t="s">
-        <v>447</v>
+        <v>362</v>
       </c>
       <c r="H286" s="5"/>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A287" s="4" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="E287" t="s">
-        <v>447</v>
+        <v>844</v>
       </c>
       <c r="H287" s="5"/>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A288" s="4" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="E288" t="s">
-        <v>447</v>
+        <v>844</v>
       </c>
       <c r="H288" s="5"/>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A289" s="4" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="E289" t="s">
-        <v>444</v>
+        <v>844</v>
       </c>
       <c r="H289" s="5"/>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A290" s="4" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="E290" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H290" s="5"/>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A291" s="4" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="E291" t="s">
-        <v>844</v>
+        <v>362</v>
       </c>
       <c r="H291" s="5"/>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A292" s="4" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="E292" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="H292" s="5"/>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A293" s="4" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="E293" t="s">
-        <v>841</v>
+        <v>447</v>
       </c>
       <c r="H293" s="5"/>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A294" s="4" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="E294" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H294" s="5"/>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A295" s="4" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="E295" t="s">
-        <v>447</v>
+        <v>844</v>
       </c>
       <c r="H295" s="5"/>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A296" s="4" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="E296" t="s">
-        <v>444</v>
+        <v>844</v>
       </c>
       <c r="H296" s="5"/>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A297" s="4" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="E297" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H297" s="5"/>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A298" s="4" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="E298" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="H298" s="5"/>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A299" s="4" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="E299" t="s">
-        <v>845</v>
+        <v>447</v>
       </c>
       <c r="H299" s="5"/>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A300" s="4" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="E300" t="s">
-        <v>841</v>
+        <v>444</v>
       </c>
       <c r="H300" s="5"/>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A301" s="4" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="E301" t="s">
-        <v>447</v>
+        <v>844</v>
       </c>
       <c r="H301" s="5"/>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A302" s="4" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="E302" t="s">
-        <v>444</v>
+        <v>844</v>
       </c>
       <c r="H302" s="5"/>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A303" s="4" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E303" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H303" s="5"/>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A304" s="4" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="E304" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="H304" s="5"/>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A305" s="4" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="E305" t="s">
-        <v>845</v>
+        <v>447</v>
       </c>
       <c r="H305" s="5"/>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A306" s="4" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="E306" t="s">
-        <v>841</v>
+        <v>447</v>
       </c>
       <c r="H306" s="5"/>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A307" s="4" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="E307" t="s">
         <v>447</v>
@@ -7588,133 +7916,133 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A308" s="4" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="E308" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H308" s="5"/>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A309" s="4" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="E309" t="s">
-        <v>447</v>
+        <v>844</v>
       </c>
       <c r="H309" s="5"/>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A310" s="4" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="E310" t="s">
-        <v>444</v>
+        <v>844</v>
       </c>
       <c r="H310" s="5"/>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A311" s="4" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="E311" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H311" s="5"/>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A312" s="4" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="E312" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="H312" s="5"/>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A313" s="4" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="E313" t="s">
-        <v>845</v>
+        <v>447</v>
       </c>
       <c r="H313" s="5"/>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A314" s="4" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="E314" t="s">
-        <v>841</v>
+        <v>447</v>
       </c>
       <c r="H314" s="5"/>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A315" s="4" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="E315" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H315" s="5"/>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A316" s="4" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="E316" t="s">
-        <v>447</v>
+        <v>844</v>
       </c>
       <c r="H316" s="5"/>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A317" s="4" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="E317" t="s">
-        <v>447</v>
+        <v>844</v>
       </c>
       <c r="H317" s="5"/>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A318" s="4" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="E318" t="s">
-        <v>362</v>
+        <v>845</v>
       </c>
       <c r="H318" s="5"/>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A319" s="4" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="E319" t="s">
-        <v>362</v>
+        <v>841</v>
       </c>
       <c r="H319" s="5"/>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A320" s="4" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="E320" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="H320" s="5"/>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A321" s="4" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="E321" t="s">
-        <v>844</v>
+        <v>444</v>
       </c>
       <c r="H321" s="5"/>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A322" s="4" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="E322" t="s">
         <v>844</v>
@@ -7723,241 +8051,241 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A323" s="4" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="E323" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H323" s="5"/>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A324" s="4" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="E324" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="H324" s="5"/>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A325" s="4" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="E325" t="s">
-        <v>362</v>
+        <v>841</v>
       </c>
       <c r="H325" s="5"/>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A326" s="4" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="E326" t="s">
-        <v>362</v>
+        <v>447</v>
       </c>
       <c r="H326" s="5"/>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A327" s="4" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="E327" t="s">
-        <v>846</v>
+        <v>447</v>
       </c>
       <c r="H327" s="5"/>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A328" s="4" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="E328" t="s">
-        <v>847</v>
+        <v>447</v>
       </c>
       <c r="H328" s="5"/>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A329" s="4" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="E329" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H329" s="5"/>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A330" s="4" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="E330" t="s">
-        <v>447</v>
+        <v>844</v>
       </c>
       <c r="H330" s="5"/>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A331" s="4" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="E331" t="s">
-        <v>447</v>
+        <v>844</v>
       </c>
       <c r="H331" s="5"/>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A332" s="4" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="E332" t="s">
-        <v>363</v>
+        <v>845</v>
       </c>
       <c r="H332" s="5"/>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A333" s="4" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="E333" t="s">
-        <v>363</v>
+        <v>841</v>
       </c>
       <c r="H333" s="5"/>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A334" s="4" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="E334" t="s">
-        <v>363</v>
+        <v>447</v>
       </c>
       <c r="H334" s="5"/>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A335" s="4" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="E335" t="s">
-        <v>363</v>
+        <v>447</v>
       </c>
       <c r="H335" s="5"/>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A336" s="4" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="E336" t="s">
-        <v>363</v>
+        <v>447</v>
       </c>
       <c r="H336" s="5"/>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A337" s="4" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="E337" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H337" s="5"/>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A338" s="4" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="E338" t="s">
-        <v>445</v>
+        <v>362</v>
       </c>
       <c r="H338" s="5"/>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A339" s="4" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E339" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H339" s="5"/>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A340" s="4" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="E340" t="s">
-        <v>363</v>
+        <v>844</v>
       </c>
       <c r="H340" s="5"/>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A341" s="4" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="E341" t="s">
-        <v>363</v>
+        <v>844</v>
       </c>
       <c r="H341" s="5"/>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A342" s="4" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="E342" t="s">
-        <v>363</v>
+        <v>845</v>
       </c>
       <c r="H342" s="5"/>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A343" s="4" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="E343" t="s">
-        <v>363</v>
+        <v>841</v>
       </c>
       <c r="H343" s="5"/>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A344" s="4" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="E344" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H344" s="5"/>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A345" s="4" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="E345" t="s">
-        <v>447</v>
+        <v>362</v>
       </c>
       <c r="H345" s="5"/>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A346" s="4" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="E346" t="s">
-        <v>447</v>
+        <v>846</v>
       </c>
       <c r="H346" s="5"/>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A347" s="4" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="E347" t="s">
-        <v>447</v>
+        <v>847</v>
       </c>
       <c r="H347" s="5"/>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A348" s="4" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="E348" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H348" s="5"/>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A349" s="4" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="E349" t="s">
         <v>447</v>
@@ -7966,7 +8294,7 @@
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A350" s="4" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="E350" t="s">
         <v>447</v>
@@ -7975,70 +8303,70 @@
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A351" s="4" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="E351" t="s">
-        <v>848</v>
+        <v>363</v>
       </c>
       <c r="H351" s="5"/>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A352" s="4" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="E352" t="s">
-        <v>447</v>
+        <v>363</v>
       </c>
       <c r="H352" s="5"/>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A353" s="4" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="E353" t="s">
-        <v>849</v>
+        <v>363</v>
       </c>
       <c r="H353" s="5"/>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A354" s="4" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="E354" t="s">
-        <v>447</v>
+        <v>363</v>
       </c>
       <c r="H354" s="5"/>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A355" s="4" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="E355" t="s">
-        <v>849</v>
+        <v>363</v>
       </c>
       <c r="H355" s="5"/>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A356" s="4" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="E356" t="s">
-        <v>447</v>
+        <v>363</v>
       </c>
       <c r="H356" s="5"/>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A357" s="4" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="E357" t="s">
-        <v>849</v>
+        <v>445</v>
       </c>
       <c r="H357" s="5"/>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A358" s="4" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="E358" t="s">
         <v>447</v>
@@ -8047,61 +8375,61 @@
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A359" s="4" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="E359" t="s">
-        <v>849</v>
+        <v>363</v>
       </c>
       <c r="H359" s="5"/>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A360" s="4" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="E360" t="s">
-        <v>447</v>
+        <v>363</v>
       </c>
       <c r="H360" s="5"/>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A361" s="4" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="E361" t="s">
-        <v>849</v>
+        <v>363</v>
       </c>
       <c r="H361" s="5"/>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A362" s="4" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="E362" t="s">
-        <v>447</v>
+        <v>363</v>
       </c>
       <c r="H362" s="5"/>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A363" s="4" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="E363" t="s">
-        <v>849</v>
+        <v>363</v>
       </c>
       <c r="H363" s="5"/>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A364" s="4" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="E364" t="s">
-        <v>849</v>
+        <v>447</v>
       </c>
       <c r="H364" s="5"/>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A365" s="4" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="E365" t="s">
         <v>447</v>
@@ -8110,7 +8438,7 @@
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A366" s="4" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="E366" t="s">
         <v>447</v>
@@ -8119,16 +8447,16 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A367" s="4" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E367" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H367" s="5"/>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A368" s="4" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="E368" t="s">
         <v>447</v>
@@ -8137,367 +8465,367 @@
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A369" s="4" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="E369" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H369" s="5"/>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A370" s="4" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="E370" t="s">
-        <v>447</v>
+        <v>848</v>
       </c>
       <c r="H370" s="5"/>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A371" s="4" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="E371" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H371" s="5"/>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A372" s="4" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="E372" t="s">
-        <v>444</v>
+        <v>849</v>
       </c>
       <c r="H372" s="5"/>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A373" s="4" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="E373" t="s">
-        <v>850</v>
+        <v>447</v>
       </c>
       <c r="H373" s="5"/>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A374" s="4" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="E374" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H374" s="5"/>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A375" s="4" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="E375" t="s">
-        <v>850</v>
+        <v>447</v>
       </c>
       <c r="H375" s="5"/>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A376" s="4" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="E376" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H376" s="5"/>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A377" s="4" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="E377" t="s">
-        <v>850</v>
+        <v>447</v>
       </c>
       <c r="H377" s="5"/>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A378" s="4" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="E378" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H378" s="5"/>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A379" s="4" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="E379" t="s">
-        <v>851</v>
+        <v>447</v>
       </c>
       <c r="H379" s="5"/>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A380" s="4" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="E380" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="H380" s="5"/>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A381" s="4" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E381" t="s">
-        <v>362</v>
+        <v>447</v>
       </c>
       <c r="H381" s="5"/>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A382" s="4" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="E382" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="H382" s="5"/>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A383" s="4" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="E383" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="H383" s="5"/>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A384" s="4" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="E384" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H384" s="5"/>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A385" s="4" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="E385" t="s">
-        <v>362</v>
+        <v>447</v>
       </c>
       <c r="H385" s="5"/>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A386" s="4" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="E386" t="s">
-        <v>362</v>
+        <v>447</v>
       </c>
       <c r="H386" s="5"/>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A387" s="4" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="E387" t="s">
-        <v>850</v>
+        <v>447</v>
       </c>
       <c r="H387" s="5"/>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A388" s="4" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="E388" t="s">
-        <v>850</v>
+        <v>445</v>
       </c>
       <c r="H388" s="5"/>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A389" s="4" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="E389" t="s">
-        <v>362</v>
+        <v>447</v>
       </c>
       <c r="H389" s="5"/>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A390" s="4" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="E390" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H390" s="5"/>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A391" s="4" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="E391" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H391" s="5"/>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A392" s="4" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E392" t="s">
-        <v>447</v>
+        <v>850</v>
       </c>
       <c r="H392" s="5"/>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A393" s="4" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="E393" t="s">
-        <v>447</v>
+        <v>850</v>
       </c>
       <c r="H393" s="5"/>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A394" s="4" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="E394" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="H394" s="5"/>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A395" s="4" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="E395" t="s">
-        <v>447</v>
+        <v>850</v>
       </c>
       <c r="H395" s="5"/>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A396" s="4" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="E396" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="H396" s="5"/>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A397" s="4" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="E397" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="H397" s="5"/>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A398" s="4" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="E398" t="s">
-        <v>842</v>
+        <v>851</v>
       </c>
       <c r="H398" s="5"/>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A399" s="4" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="E399" t="s">
-        <v>842</v>
+        <v>852</v>
       </c>
       <c r="H399" s="5"/>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A400" s="4" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="E400" t="s">
-        <v>842</v>
+        <v>362</v>
       </c>
       <c r="H400" s="5"/>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A401" s="4" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="E401" t="s">
-        <v>842</v>
+        <v>851</v>
       </c>
       <c r="H401" s="5"/>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A402" s="4" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="E402" t="s">
-        <v>842</v>
+        <v>853</v>
       </c>
       <c r="H402" s="5"/>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A403" s="4" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="E403" t="s">
-        <v>842</v>
+        <v>451</v>
       </c>
       <c r="H403" s="5"/>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A404" s="4" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="E404" t="s">
-        <v>855</v>
+        <v>362</v>
       </c>
       <c r="H404" s="5"/>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A405" s="4" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="E405" t="s">
-        <v>854</v>
+        <v>362</v>
       </c>
       <c r="H405" s="5"/>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A406" s="4" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="E406" t="s">
-        <v>447</v>
+        <v>850</v>
       </c>
       <c r="H406" s="5"/>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A407" s="4" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="E407" t="s">
-        <v>447</v>
+        <v>850</v>
       </c>
       <c r="H407" s="5"/>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A408" s="4" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="E408" t="s">
-        <v>447</v>
+        <v>362</v>
       </c>
       <c r="H408" s="5"/>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A409" s="4" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="E409" t="s">
         <v>447</v>
@@ -8506,16 +8834,16 @@
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A410" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="E410" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H410" s="5"/>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A411" s="4" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="E411" t="s">
         <v>447</v>
@@ -8524,7 +8852,7 @@
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A412" s="4" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="E412" t="s">
         <v>447</v>
@@ -8533,16 +8861,16 @@
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A413" s="4" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="E413" t="s">
-        <v>447</v>
+        <v>854</v>
       </c>
       <c r="H413" s="5"/>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A414" s="4" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="E414" t="s">
         <v>447</v>
@@ -8551,16 +8879,16 @@
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A415" s="4" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="E415" t="s">
-        <v>447</v>
+        <v>842</v>
       </c>
       <c r="H415" s="5"/>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A416" s="4" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="E416" t="s">
         <v>842</v>
@@ -8569,7 +8897,7 @@
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A417" s="4" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="E417" t="s">
         <v>842</v>
@@ -8578,7 +8906,7 @@
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A418" s="4" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="E418" t="s">
         <v>842</v>
@@ -8587,7 +8915,7 @@
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A419" s="4" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="E419" t="s">
         <v>842</v>
@@ -8596,7 +8924,7 @@
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A420" s="4" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="E420" t="s">
         <v>842</v>
@@ -8605,7 +8933,7 @@
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A421" s="4" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="E421" t="s">
         <v>842</v>
@@ -8614,79 +8942,79 @@
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A422" s="4" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="E422" t="s">
-        <v>447</v>
+        <v>842</v>
       </c>
       <c r="H422" s="5"/>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A423" s="4" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="E423" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
       <c r="H423" s="5"/>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A424" s="4" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="E424" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
       <c r="H424" s="5"/>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A425" s="4" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="E425" t="s">
-        <v>842</v>
+        <v>447</v>
       </c>
       <c r="H425" s="5"/>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A426" s="4" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="E426" t="s">
-        <v>842</v>
+        <v>447</v>
       </c>
       <c r="H426" s="5"/>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A427" s="4" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="E427" t="s">
-        <v>842</v>
+        <v>447</v>
       </c>
       <c r="H427" s="5"/>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A428" s="4" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="E428" t="s">
-        <v>842</v>
+        <v>447</v>
       </c>
       <c r="H428" s="5"/>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A429" s="4" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="E429" t="s">
-        <v>842</v>
+        <v>450</v>
       </c>
       <c r="H429" s="5"/>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A430" s="4" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="E430" t="s">
         <v>447</v>
@@ -8695,43 +9023,43 @@
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A431" s="4" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="E431" t="s">
-        <v>842</v>
+        <v>447</v>
       </c>
       <c r="H431" s="5"/>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A432" s="4" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="E432" t="s">
-        <v>842</v>
+        <v>447</v>
       </c>
       <c r="H432" s="5"/>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A433" s="4" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="E433" t="s">
-        <v>842</v>
+        <v>447</v>
       </c>
       <c r="H433" s="5"/>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A434" s="4" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="E434" t="s">
-        <v>842</v>
+        <v>447</v>
       </c>
       <c r="H434" s="5"/>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A435" s="4" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="E435" t="s">
         <v>842</v>
@@ -8740,7 +9068,7 @@
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A436" s="4" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="E436" t="s">
         <v>842</v>
@@ -8749,7 +9077,7 @@
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A437" s="4" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="E437" t="s">
         <v>842</v>
@@ -8758,106 +9086,106 @@
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A438" s="4" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E438" t="s">
-        <v>447</v>
+        <v>842</v>
       </c>
       <c r="H438" s="5"/>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A439" s="4" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="E439" t="s">
-        <v>361</v>
+        <v>842</v>
       </c>
       <c r="H439" s="5"/>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A440" s="4" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="E440" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="H440" s="5"/>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A441" s="4" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="E441" t="s">
-        <v>361</v>
+        <v>447</v>
       </c>
       <c r="H441" s="5"/>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A442" s="4" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="E442" t="s">
-        <v>447</v>
+        <v>842</v>
       </c>
       <c r="H442" s="5"/>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A443" s="4" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E443" t="s">
-        <v>447</v>
+        <v>842</v>
       </c>
       <c r="H443" s="5"/>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A444" s="4" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="E444" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
       <c r="H444" s="5"/>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A445" s="4" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="E445" t="s">
-        <v>447</v>
+        <v>842</v>
       </c>
       <c r="H445" s="5"/>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A446" s="4" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="E446" t="s">
-        <v>447</v>
+        <v>842</v>
       </c>
       <c r="H446" s="5"/>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A447" s="4" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="E447" t="s">
-        <v>447</v>
+        <v>842</v>
       </c>
       <c r="H447" s="5"/>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A448" s="4" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="E448" t="s">
-        <v>447</v>
+        <v>842</v>
       </c>
       <c r="H448" s="5"/>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A449" s="4" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="E449" t="s">
         <v>447</v>
@@ -8866,70 +9194,70 @@
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A450" s="4" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="E450" t="s">
-        <v>447</v>
+        <v>842</v>
       </c>
       <c r="H450" s="5"/>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A451" s="4" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="E451" t="s">
-        <v>447</v>
+        <v>842</v>
       </c>
       <c r="H451" s="5"/>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A452" s="4" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="E452" t="s">
-        <v>447</v>
+        <v>842</v>
       </c>
       <c r="H452" s="5"/>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A453" s="4" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="E453" t="s">
-        <v>447</v>
+        <v>842</v>
       </c>
       <c r="H453" s="5"/>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A454" s="4" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="E454" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="H454" s="5"/>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A455" s="4" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="E455" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
       <c r="H455" s="5"/>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A456" s="4" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="E456" t="s">
-        <v>447</v>
+        <v>842</v>
       </c>
       <c r="H456" s="5"/>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A457" s="4" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="E457" t="s">
         <v>447</v>
@@ -8938,34 +9266,34 @@
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A458" s="4" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="E458" t="s">
-        <v>447</v>
+        <v>361</v>
       </c>
       <c r="H458" s="5"/>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A459" s="4" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="E459" t="s">
-        <v>361</v>
+        <v>855</v>
       </c>
       <c r="H459" s="5"/>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A460" s="4" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="E460" t="s">
-        <v>447</v>
+        <v>361</v>
       </c>
       <c r="H460" s="5"/>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A461" s="4" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="E461" t="s">
         <v>447</v>
@@ -8974,7 +9302,7 @@
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A462" s="4" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="E462" t="s">
         <v>447</v>
@@ -8983,16 +9311,16 @@
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A463" s="4" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="E463" t="s">
-        <v>447</v>
+        <v>854</v>
       </c>
       <c r="H463" s="5"/>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A464" s="4" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="E464" t="s">
         <v>447</v>
@@ -9001,7 +9329,7 @@
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A465" s="4" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="E465" t="s">
         <v>447</v>
@@ -9010,7 +9338,7 @@
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A466" s="4" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="E466" t="s">
         <v>447</v>
@@ -9019,16 +9347,16 @@
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A467" s="4" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="E467" t="s">
-        <v>361</v>
+        <v>447</v>
       </c>
       <c r="H467" s="5"/>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A468" s="4" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="E468" t="s">
         <v>447</v>
@@ -9037,16 +9365,16 @@
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A469" s="4" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="E469" t="s">
-        <v>361</v>
+        <v>447</v>
       </c>
       <c r="H469" s="5"/>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A470" s="4" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="E470" t="s">
         <v>447</v>
@@ -9055,7 +9383,7 @@
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A471" s="4" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="E471" t="s">
         <v>447</v>
@@ -9064,7 +9392,7 @@
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A472" s="4" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="E472" t="s">
         <v>447</v>
@@ -9073,25 +9401,25 @@
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A473" s="4" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="E473" t="s">
-        <v>447</v>
+        <v>855</v>
       </c>
       <c r="H473" s="5"/>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A474" s="4" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="E474" t="s">
-        <v>447</v>
+        <v>854</v>
       </c>
       <c r="H474" s="5"/>
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A475" s="4" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="E475" t="s">
         <v>447</v>
@@ -9100,7 +9428,7 @@
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A476" s="4" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="E476" t="s">
         <v>447</v>
@@ -9109,25 +9437,25 @@
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A477" s="4" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="E477" t="s">
-        <v>361</v>
+        <v>447</v>
       </c>
       <c r="H477" s="5"/>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A478" s="4" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="E478" t="s">
-        <v>855</v>
+        <v>361</v>
       </c>
       <c r="H478" s="5"/>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A479" s="4" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="E479" t="s">
         <v>447</v>
@@ -9136,7 +9464,7 @@
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A480" s="4" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="E480" t="s">
         <v>447</v>
@@ -9145,7 +9473,7 @@
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A481" s="4" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E481" t="s">
         <v>447</v>
@@ -9154,7 +9482,7 @@
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A482" s="4" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="E482" t="s">
         <v>447</v>
@@ -9163,7 +9491,7 @@
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A483" s="4" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="E483" t="s">
         <v>447</v>
@@ -9172,55 +9500,226 @@
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A484" s="4" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="E484" t="s">
         <v>447</v>
       </c>
-      <c r="F484" s="9"/>
-      <c r="G484" s="9"/>
-      <c r="H484" s="10"/>
+      <c r="H484" s="5"/>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A485" s="4" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="E485" t="s">
         <v>447</v>
       </c>
+      <c r="H485" s="5"/>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A486" s="4" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="E486" t="s">
-        <v>447</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="H486" s="5"/>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A487" s="4" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E487" t="s">
         <v>447</v>
       </c>
+      <c r="H487" s="5"/>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A488" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E488" t="s">
+        <v>361</v>
+      </c>
+      <c r="H488" s="5"/>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A489" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E489" t="s">
+        <v>447</v>
+      </c>
+      <c r="H489" s="5"/>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A490" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="E490" t="s">
+        <v>447</v>
+      </c>
+      <c r="H490" s="5"/>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A491" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E491" t="s">
+        <v>447</v>
+      </c>
+      <c r="H491" s="5"/>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A492" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E492" t="s">
+        <v>447</v>
+      </c>
+      <c r="H492" s="5"/>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A493" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E493" t="s">
+        <v>447</v>
+      </c>
+      <c r="H493" s="5"/>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A494" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E494" t="s">
+        <v>447</v>
+      </c>
+      <c r="H494" s="5"/>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A495" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E495" t="s">
+        <v>447</v>
+      </c>
+      <c r="H495" s="5"/>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A496" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E496" t="s">
+        <v>361</v>
+      </c>
+      <c r="H496" s="5"/>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A497" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E497" t="s">
+        <v>855</v>
+      </c>
+      <c r="H497" s="5"/>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A498" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E498" t="s">
+        <v>447</v>
+      </c>
+      <c r="H498" s="5"/>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A499" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E499" t="s">
+        <v>447</v>
+      </c>
+      <c r="H499" s="5"/>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A500" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E500" t="s">
+        <v>447</v>
+      </c>
+      <c r="H500" s="5"/>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A501" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E501" t="s">
+        <v>447</v>
+      </c>
+      <c r="H501" s="5"/>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A502" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E502" t="s">
+        <v>447</v>
+      </c>
+      <c r="H502" s="5"/>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A503" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E503" t="s">
+        <v>447</v>
+      </c>
+      <c r="F503" s="9"/>
+      <c r="G503" s="9"/>
+      <c r="H503" s="10"/>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A504" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E504" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A505" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E505" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A506" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E506" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A507" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="E488" t="s">
+      <c r="E507" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A489" s="7" t="s">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A508" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="B489" s="8"/>
-      <c r="C489" s="8"/>
-      <c r="D489" s="8"/>
-      <c r="E489" s="8" t="s">
+      <c r="B508" s="8"/>
+      <c r="C508" s="8"/>
+      <c r="D508" s="8"/>
+      <c r="E508" s="8" t="s">
         <v>447</v>
       </c>
     </row>
